--- a/c64-rf-modulator-replacement-bom.xlsx
+++ b/c64-rf-modulator-replacement-bom.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarszcz\Documents\GitHub\c64-rf-modulator-replacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F65802-DEA5-48FC-AD37-41B0EB4DCEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98CB2D-BA8E-4D80-B0A5-3733BBCBAA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3615" windowWidth="34020" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RevB" sheetId="1" r:id="rId1"/>
+    <sheet name="RevC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="130">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -309,107 +310,150 @@
     <t>CF14JT75R0CT-ND</t>
   </si>
   <si>
+    <t>RES 75 OHM 1/4W 5% AXIAL</t>
+  </si>
+  <si>
+    <t>3296Y-1-201LF</t>
+  </si>
+  <si>
+    <t>330pF Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>68pF Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>0.33uF Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>0.1uF Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>10uF Electrolytic Capacitor</t>
+  </si>
+  <si>
+    <t>10uHH Inductor</t>
+  </si>
+  <si>
+    <t>1N4148 Diode</t>
+  </si>
+  <si>
+    <t>75 Ohm 1/4W Resistor</t>
+  </si>
+  <si>
+    <t>220 Ohm 1/4W Resistor</t>
+  </si>
+  <si>
+    <t>150 Ohm 3/4W Resistor</t>
+  </si>
+  <si>
+    <t>470 Ohm 1/4W Resistor</t>
+  </si>
+  <si>
+    <t>1K Ohm 1/4W Resistor</t>
+  </si>
+  <si>
+    <t>3.3K Ohm 1/4W Resistor</t>
+  </si>
+  <si>
+    <t>5.6K Ohm 1/4W Resistor</t>
+  </si>
+  <si>
+    <t>68  Ohm 1/4W Resistor</t>
+  </si>
+  <si>
+    <t>BC547B NPN Transistor</t>
+  </si>
+  <si>
+    <t>5V 78L05 Linear Regulator</t>
+  </si>
+  <si>
+    <t>3x5 Pin Header</t>
+  </si>
+  <si>
+    <t>0.1" Jumpers</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Digi-Key Description</t>
+  </si>
+  <si>
+    <t>1K Ohm 25 Turn Trimpot - Chroma Adjustment
+(Triangular pin configuration - "Y")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3296W-1-221LF</t>
+  </si>
+  <si>
+    <t>TRIMMER 220 OHM 0.5W PC PIN TOP</t>
+  </si>
+  <si>
+    <t>If omitted, use R4=150 Ohm</t>
+  </si>
+  <si>
+    <t>Use with RV2=220 Ohm (Preferred)</t>
+  </si>
+  <si>
     <t>R7</t>
   </si>
   <si>
-    <t>RES 75 OHM 1/4W 5% AXIAL</t>
-  </si>
-  <si>
-    <t>3296Y-1-201LF</t>
-  </si>
-  <si>
-    <t>3296Y-201LF-ND</t>
-  </si>
-  <si>
     <t>RV2</t>
   </si>
   <si>
-    <t>TRIMMER 200 OHM 0.5W PC PIN TOP</t>
-  </si>
-  <si>
-    <t>330pF Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>68pF Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>0.33uF Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>0.1uF Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>10uF Electrolytic Capacitor</t>
-  </si>
-  <si>
-    <t>10uHH Inductor</t>
-  </si>
-  <si>
-    <t>1N4148 Diode</t>
-  </si>
-  <si>
-    <t>75 Ohm 1/4W Resistor</t>
-  </si>
-  <si>
-    <t>220 Ohm 1/4W Resistor</t>
-  </si>
-  <si>
-    <t>150 Ohm 3/4W Resistor</t>
-  </si>
-  <si>
-    <t>470 Ohm 1/4W Resistor</t>
-  </si>
-  <si>
-    <t>1K Ohm 1/4W Resistor</t>
-  </si>
-  <si>
-    <t>3.3K Ohm 1/4W Resistor</t>
-  </si>
-  <si>
-    <t>5.6K Ohm 1/4W Resistor</t>
-  </si>
-  <si>
-    <t>68  Ohm 1/4W Resistor</t>
-  </si>
-  <si>
-    <t>BC547B NPN Transistor</t>
-  </si>
-  <si>
-    <t>5V 78L05 Linear Regulator</t>
-  </si>
-  <si>
-    <t>3x5 Pin Header</t>
-  </si>
-  <si>
-    <t>0.1" Jumpers</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>If omitted, use 150 Ohm R4</t>
-  </si>
-  <si>
-    <t>Digi-Key Description</t>
-  </si>
-  <si>
-    <t>If omitted, use 150 Ohm R72
-250 Ohm Trimmer Preferred, but may use 200 Ohm if that is all that is available and increase R7 to 100 Ohm if desired</t>
-  </si>
-  <si>
     <t>1K Ohm 25 Turn Trimpot - Chroma Adjustment
-(Triangular pin configuration)</t>
-  </si>
-  <si>
-    <t>200 Ohm 25 Turn Trimpot - Luma Adjustment
-(Triangular pin configuration)</t>
+(In-line pin configuration - "W")</t>
+  </si>
+  <si>
+    <t>220 Ohm 25 Turn Trimpot - Luma Adjustment
+(In-line pin configuration - "W")</t>
+  </si>
+  <si>
+    <t>3296W-1-221LF</t>
+  </si>
+  <si>
+    <t>3296W-102LF-ND</t>
+  </si>
+  <si>
+    <t>3296W-1-102LF</t>
+  </si>
+  <si>
+    <t>3296W-1-221LF-ND</t>
+  </si>
+  <si>
+    <r>
+      <t>If omitted, use R7=150 Ohm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If omitted, use R7=150 Ohm 
+Note, y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ou will have to bend the legs to make it work fit as the 220 doesn't come in a "Y" leg configuration, only the straight legs "W"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +469,17 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -457,6 +512,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,20 +803,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="132.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="120.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -771,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -780,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -791,7 +853,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -814,7 +876,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -837,7 +899,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -860,7 +922,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
@@ -883,7 +945,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>49</v>
@@ -906,7 +968,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -929,7 +991,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -952,7 +1014,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>54</v>
@@ -975,7 +1037,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
@@ -998,7 +1060,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
@@ -1021,7 +1083,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>66</v>
@@ -1044,7 +1106,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>70</v>
@@ -1063,23 +1125,26 @@
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>92</v>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1090,7 +1155,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>74</v>
@@ -1113,7 +1178,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>78</v>
@@ -1136,7 +1201,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>87</v>
@@ -1158,26 +1223,26 @@
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>122</v>
+      <c r="B18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>120</v>
+        <v>93</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1188,7 +1253,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
@@ -1211,7 +1276,7 @@
         <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>83</v>
@@ -1234,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
@@ -1257,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1274,5 +1339,548 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856B4E0C-EB4C-46D9-AD26-F21A43D7F54D}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/c64-rf-modulator-replacement-bom.xlsx
+++ b/c64-rf-modulator-replacement-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarszcz\Documents\GitHub\c64-rf-modulator-replacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98CB2D-BA8E-4D80-B0A5-3733BBCBAA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC1FD6A-746C-4C95-B4D1-D8B35FCCBA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3615" windowWidth="34020" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RevB" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="128">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -313,9 +313,6 @@
     <t>RES 75 OHM 1/4W 5% AXIAL</t>
   </si>
   <si>
-    <t>3296Y-1-201LF</t>
-  </si>
-  <si>
     <t>330pF Ceramic Capacitor</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
   </si>
   <si>
     <t>10uF Electrolytic Capacitor</t>
-  </si>
-  <si>
-    <t>10uHH Inductor</t>
   </si>
   <si>
     <t>1N4148 Diode</t>
@@ -381,10 +375,6 @@
   <si>
     <t>1K Ohm 25 Turn Trimpot - Chroma Adjustment
 (Triangular pin configuration - "Y")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-3296W-1-221LF</t>
   </si>
   <si>
     <t>TRIMMER 220 OHM 0.5W PC PIN TOP</t>
@@ -447,6 +437,9 @@
       </rPr>
       <t>ou will have to bend the legs to make it work fit as the 220 doesn't come in a "Y" leg configuration, only the straight legs "W"</t>
     </r>
+  </si>
+  <si>
+    <t>10uH Inductor</t>
   </si>
 </sst>
 </file>
@@ -804,7 +797,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C17" sqref="C17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -833,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -842,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -853,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -876,7 +869,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -899,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -922,7 +915,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
@@ -945,7 +938,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>49</v>
@@ -968,7 +961,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -991,7 +984,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -1014,7 +1007,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>54</v>
@@ -1037,7 +1030,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
@@ -1060,7 +1053,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
@@ -1083,7 +1076,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>66</v>
@@ -1106,7 +1099,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>70</v>
@@ -1126,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>91</v>
@@ -1144,7 +1137,7 @@
         <v>90</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1155,7 +1148,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>74</v>
@@ -1178,7 +1171,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>78</v>
@@ -1201,7 +1194,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>87</v>
@@ -1216,7 +1209,7 @@
         <v>86</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30">
@@ -1224,25 +1217,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1253,7 +1246,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
@@ -1276,7 +1269,7 @@
         <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>83</v>
@@ -1299,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
@@ -1322,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1347,9 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856B4E0C-EB4C-46D9-AD26-F21A43D7F54D}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1377,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1386,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1397,7 +1388,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -1420,7 +1411,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -1443,7 +1434,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -1466,7 +1457,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
@@ -1489,7 +1480,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>49</v>
@@ -1512,7 +1503,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -1535,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -1558,7 +1549,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>54</v>
@@ -1581,7 +1572,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
@@ -1604,7 +1595,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
@@ -1627,7 +1618,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>66</v>
@@ -1650,7 +1641,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>70</v>
@@ -1670,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>91</v>
@@ -1697,7 +1688,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>74</v>
@@ -1720,7 +1711,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>78</v>
@@ -1743,10 +1734,10 @@
         <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>89</v>
@@ -1755,10 +1746,10 @@
         <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30">
@@ -1766,25 +1757,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1795,7 +1786,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
@@ -1818,7 +1809,7 @@
         <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>83</v>
@@ -1841,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
@@ -1864,7 +1855,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>

--- a/c64-rf-modulator-replacement-bom.xlsx
+++ b/c64-rf-modulator-replacement-bom.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbarszcz\Documents\GitHub\c64-rf-modulator-replacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC1FD6A-746C-4C95-B4D1-D8B35FCCBA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B99EEE-4F9D-4032-9C35-97DF22F9BF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RevB" sheetId="1" r:id="rId1"/>
-    <sheet name="RevC" sheetId="2" r:id="rId2"/>
+    <sheet name="RevC-D" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -313,18 +313,6 @@
     <t>RES 75 OHM 1/4W 5% AXIAL</t>
   </si>
   <si>
-    <t>330pF Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>68pF Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>0.33uF Ceramic Capacitor</t>
-  </si>
-  <si>
-    <t>0.1uF Ceramic Capacitor</t>
-  </si>
-  <si>
     <t>10uF Electrolytic Capacitor</t>
   </si>
   <si>
@@ -440,6 +428,18 @@
   </si>
   <si>
     <t>10uH Inductor</t>
+  </si>
+  <si>
+    <t>0.33uF Ceramic Capacitor - "334"</t>
+  </si>
+  <si>
+    <t>330pF Ceramic Capacitor - "331"</t>
+  </si>
+  <si>
+    <t>68pF Ceramic Capacitor - "680"</t>
+  </si>
+  <si>
+    <t>0.1uF Ceramic Capacitor - "104"</t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H17"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -869,7 +869,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -892,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -915,7 +915,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
@@ -938,7 +938,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>49</v>
@@ -961,7 +961,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -984,7 +984,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -1007,7 +1007,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>54</v>
@@ -1030,7 +1030,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
@@ -1053,7 +1053,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
@@ -1076,7 +1076,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>66</v>
@@ -1099,7 +1099,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>70</v>
@@ -1119,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>91</v>
@@ -1137,7 +1137,7 @@
         <v>90</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1148,7 +1148,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>74</v>
@@ -1171,7 +1171,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>78</v>
@@ -1194,7 +1194,7 @@
         <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>87</v>
@@ -1209,7 +1209,7 @@
         <v>86</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30">
@@ -1217,25 +1217,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1246,7 +1246,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
@@ -1269,7 +1269,7 @@
         <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>83</v>
@@ -1292,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
@@ -1315,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -1368,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1388,7 +1388,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -1411,7 +1411,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>44</v>
@@ -1434,7 +1434,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
@@ -1457,7 +1457,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
@@ -1480,7 +1480,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>49</v>
@@ -1503,7 +1503,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -1526,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -1549,7 +1549,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>54</v>
@@ -1572,7 +1572,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
@@ -1595,7 +1595,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
@@ -1618,7 +1618,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>66</v>
@@ -1641,7 +1641,7 @@
         <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>70</v>
@@ -1661,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>91</v>
@@ -1688,7 +1688,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>74</v>
@@ -1711,7 +1711,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>78</v>
@@ -1734,10 +1734,10 @@
         <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>89</v>
@@ -1746,10 +1746,10 @@
         <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30">
@@ -1757,25 +1757,25 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1786,7 +1786,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
@@ -1809,7 +1809,7 @@
         <v>84</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>83</v>
@@ -1832,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
@@ -1855,7 +1855,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
